--- a/source/2021/british-columbia-more-yimby-california/files/comparing-building-permits-per-capita-between-america-canada.phillmv.xlsx
+++ b/source/2021/british-columbia-more-yimby-california/files/comparing-building-permits-per-capita-between-america-canada.phillmv.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillmv/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillmv/code/ok/rewrite_logue/source/2021/british-columbia-more-yimby-california/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F01D0-C74A-0C42-80C0-872428FE19E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED73BF77-0EE7-C24E-AB5C-022839E01FFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="-24720" windowWidth="30140" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="-24540" windowWidth="28800" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="permits + population" sheetId="6" r:id="rId1"/>
     <sheet name="graph" sheetId="9" r:id="rId2"/>
-    <sheet name="3410006601-eng" sheetId="1" r:id="rId3"/>
-    <sheet name="3410006601-eng cleaned up" sheetId="2" r:id="rId4"/>
-    <sheet name="3410006601-eng annualized" sheetId="3" r:id="rId5"/>
-    <sheet name="annualized but copied" sheetId="4" r:id="rId6"/>
-    <sheet name="1710000501-eng" sheetId="5" r:id="rId7"/>
-    <sheet name="US POP" sheetId="8" r:id="rId8"/>
-    <sheet name="authorized housing units" sheetId="7" r:id="rId9"/>
+    <sheet name="graph &gt;2016" sheetId="11" r:id="rId3"/>
+    <sheet name="3410006601-eng" sheetId="1" r:id="rId4"/>
+    <sheet name="3410006601-eng cleaned up" sheetId="2" r:id="rId5"/>
+    <sheet name="3410006601-eng annualized" sheetId="3" r:id="rId6"/>
+    <sheet name="annualized but copied" sheetId="4" r:id="rId7"/>
+    <sheet name="1710000501-eng" sheetId="5" r:id="rId8"/>
+    <sheet name="US POP" sheetId="8" r:id="rId9"/>
+    <sheet name="authorized housing units" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="87">
   <si>
     <t>Building permits, by type of structure and type of work (x 1,000)</t>
   </si>
@@ -285,11 +286,26 @@
   <si>
     <t>QC 🇨🇦</t>
   </si>
+  <si>
+    <t>avg &gt;2016</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>growth rate</t>
+  </si>
+  <si>
+    <t>permit growth rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000000000000%"/>
+  </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -804,7 +820,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -816,6 +832,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,9 +914,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11032371031746031"/>
+          <c:x val="0.11914315476190476"/>
           <c:y val="0.12175580986549364"/>
-          <c:w val="0.87175654761904775"/>
+          <c:w val="0.86293710317460315"/>
           <c:h val="0.70854732713360202"/>
         </c:manualLayout>
       </c:layout>
@@ -1398,6 +1416,529 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11914315476190476"/>
+          <c:y val="0.12175580986549364"/>
+          <c:w val="0.86293710317460315"/>
+          <c:h val="0.70854732713360202"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'graph &gt;2016'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average building permits per 1,000 residents 2011-2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1623-4B46-BDA7-299F83187AFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1623-4B46-BDA7-299F83187AFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1623-4B46-BDA7-299F83187AFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1623-4B46-BDA7-299F83187AFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1623-4B46-BDA7-299F83187AFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1623-4B46-BDA7-299F83187AFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1623-4B46-BDA7-299F83187AFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1623-4B46-BDA7-299F83187AFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1623-4B46-BDA7-299F83187AFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'graph &gt;2016'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>QC 🇨🇦</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ON 🇨🇦</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NY 🇺🇸</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FL 🇺🇸</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TX 🇺🇸</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AB 🇨🇦</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BC 🇨🇦</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WA 🇺🇸</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CA 🇺🇸</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph &gt;2016'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-1623-4B46-BDA7-299F83187AFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="21"/>
+        <c:axId val="1897467343"/>
+        <c:axId val="1903486143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1897467343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bitstream Vera Sans Mono Roman" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903486143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1903486143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1897467343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1438,7 +1979,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1988,12 +3072,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.10214</cdr:x>
-      <cdr:y>0.8439</cdr:y>
+      <cdr:x>0.1097</cdr:x>
+      <cdr:y>0.84558</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.9714</cdr:x>
-      <cdr:y>0.99328</cdr:y>
+      <cdr:x>0.97896</cdr:x>
+      <cdr:y>0.99496</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2008,8 +3092,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1029599" y="6375440"/>
-          <a:ext cx="8762099" cy="1128496"/>
+          <a:off x="1105771" y="6388142"/>
+          <a:ext cx="8762141" cy="1128526"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2285,6 +3369,370 @@
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
             <a:t>2011-2020 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546101</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>720101</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>175996</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37BAF55-9ADB-424D-8B0B-2CFD446A1C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1097</cdr:x>
+      <cdr:y>0.8439</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97896</cdr:x>
+      <cdr:y>0.99328</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C895A47-A9E6-344A-90EA-E37601F4878A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1105771" y="6375442"/>
+          <a:ext cx="8762141" cy="1128526"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>A building permit represents an authorization to build</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a new privately owned housing unit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (including multi-family). Almost every new housing unit has a permit, but not every permit turns into a new housing unit.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Phillip Mendonça-Vieira, 2021.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>Source:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> Statistics Canada. Table 34-10-0066-01  Building permits, by type of structure and type of work (x 1,000); Statistics Canada. Table 17-10-0005-01  Population estimates on July 1st, by age and sex; U.S. Census Bureau. Building Permits Survey (2016-2020); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U.S. Census Bureau.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Annual Estimates of the Population for the U.S. and States, and for Puerto Rico</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (2016-2020)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1100" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:br>
+            <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-CA" sz="1100" b="0" i="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11717</cdr:x>
+      <cdr:y>0.8439</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9588</cdr:x>
+      <cdr:y>0.90442</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5CA055-FFCE-1C46-BB17-6B6689169738}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1181099" y="6375440"/>
+          <a:ext cx="8483600" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.016</cdr:x>
+      <cdr:y>0.01682</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98614</cdr:x>
+      <cdr:y>0.12609</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8297CA4-3915-3D43-A245-F7D97FB2C4EA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="161300" y="127040"/>
+          <a:ext cx="9779000" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Average building permits for new dwellings per year per 1,000 residents in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>2016-2020 </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
             <a:solidFill>
@@ -2602,1715 +4050,3229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A3:N57"/>
+  <dimension ref="A3:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2011</v>
+      </c>
+      <c r="E3">
+        <v>2012</v>
+      </c>
+      <c r="F3">
+        <v>2013</v>
+      </c>
+      <c r="G3">
+        <v>2014</v>
+      </c>
+      <c r="H3">
+        <v>2015</v>
+      </c>
+      <c r="I3">
+        <v>2016</v>
+      </c>
+      <c r="J3">
+        <v>2017</v>
+      </c>
+      <c r="K3">
+        <v>2018</v>
+      </c>
+      <c r="L3">
+        <v>2019</v>
+      </c>
+      <c r="M3">
+        <v>2020</v>
+      </c>
+      <c r="N3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2">
+        <v>53890</v>
+      </c>
+      <c r="E5" s="2">
+        <v>51262</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42493</v>
+      </c>
+      <c r="G5" s="2">
+        <v>41300</v>
+      </c>
+      <c r="H5" s="2">
+        <v>38485</v>
+      </c>
+      <c r="I5" s="2">
+        <v>43502</v>
+      </c>
+      <c r="J5" s="2">
+        <v>48885</v>
+      </c>
+      <c r="K5" s="2">
+        <v>56422</v>
+      </c>
+      <c r="L5" s="2">
+        <v>53468</v>
+      </c>
+      <c r="M5" s="2">
+        <v>59346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8005090</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8061101</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8110880</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8150183</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8175272</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8225950</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8302063</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8401738</v>
+      </c>
+      <c r="L6" s="2">
+        <v>8503483</v>
+      </c>
+      <c r="M6" s="2">
+        <v>8578300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <f>D5/D6</f>
+        <v>6.7319667861323231E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:M7" si="0">E5/E6</f>
+        <v>6.3591809605164354E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5.2390122896652401E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5.0673708798931261E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>4.7074886315709129E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>5.2883861438496466E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>5.8882954754739874E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>6.7155152898126557E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>6.2877764323160286E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>6.918153946586153E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <f>D7*1000</f>
+        <v>6.7319667861323227</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:M8" si="1">E7*1000</f>
+        <v>6.3591809605164356</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5.23901228966524</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5.0673708798931258</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>4.7074886315709126</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>5.2883861438496469</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>5.8882954754739876</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>6.7155152898126556</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>6.2877764323160283</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>6.9181539465861528</v>
+      </c>
+      <c r="N8" s="9">
+        <f>SUM(D8:M8)/10</f>
+        <v>5.9203146835816511</v>
+      </c>
+      <c r="O8" s="9">
+        <f>SUM(I8:M8)/5</f>
+        <v>6.2196254576076937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2">
+        <f>E6-D6</f>
+        <v>56011</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:M9" si="2">F6-E6</f>
+        <v>49779</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>39303</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>25089</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>50678</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>76113</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>99675</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>101745</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>74817</v>
+      </c>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="11">
+        <f>(E9/D6)</f>
+        <v>6.9969232076091585E-3</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:M10" si="3">(F9/E6)</f>
+        <v>6.1752110536761667E-3</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="3"/>
+        <v>4.8457134121081807E-3</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="3"/>
+        <v>3.0783357870614683E-3</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="3"/>
+        <v>6.1989374787774646E-3</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="3"/>
+        <v>9.25279147089394E-3</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2006051989728336E-2</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2109994384495207E-2</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="3"/>
+        <v>8.7983947283718916E-3</v>
+      </c>
+      <c r="N10" s="11">
+        <f>SUM(E10:M10)/10</f>
+        <v>6.9462353512721817E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="11">
+        <f>(E5-D5)/D5</f>
+        <v>-4.8766004824642793E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" ref="F11:M11" si="4">(F5-E5)/E5</f>
+        <v>-0.17106238539268853</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="4"/>
+        <v>-2.8075212387922717E-2</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="4"/>
+        <v>-6.8159806295399514E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.13036247888787839</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.12374143717530228</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.15417817326378236</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="4"/>
+        <v>-5.2355464180638758E-2</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.10993491434128824</v>
+      </c>
+      <c r="N11" s="11">
+        <f>SUM(E11:M11)/10</f>
+        <v>1.4979813058695895E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2">
+        <v>65374</v>
+      </c>
+      <c r="E14" s="2">
+        <v>69884</v>
+      </c>
+      <c r="F14" s="2">
+        <v>70133</v>
+      </c>
+      <c r="G14" s="2">
+        <v>68800</v>
+      </c>
+      <c r="H14" s="2">
+        <v>73438</v>
+      </c>
+      <c r="I14" s="2">
+        <v>80503</v>
+      </c>
+      <c r="J14" s="2">
+        <v>78100</v>
+      </c>
+      <c r="K14" s="2">
+        <v>84567</v>
+      </c>
+      <c r="L14" s="2">
+        <v>85393</v>
+      </c>
+      <c r="M14" s="2">
+        <v>105244</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13261381</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13390632</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13510781</v>
+      </c>
+      <c r="G15" s="2">
+        <v>13617553</v>
+      </c>
+      <c r="H15" s="2">
+        <v>13707118</v>
+      </c>
+      <c r="I15" s="2">
+        <v>13875394</v>
+      </c>
+      <c r="J15" s="2">
+        <v>14070141</v>
+      </c>
+      <c r="K15" s="2">
+        <v>14308697</v>
+      </c>
+      <c r="L15" s="2">
+        <v>14544701</v>
+      </c>
+      <c r="M15" s="2">
+        <v>14745712</v>
+      </c>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <f>D14/D15</f>
+        <v>4.9296524999922712E-3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:M16" si="5">E14/E15</f>
+        <v>5.2188724176722955E-3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>5.1908916294328214E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>5.052302715473184E-3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>5.3576543223746963E-3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>5.801853266292835E-3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>5.5507617158918306E-3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>5.9101817586884398E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>5.8710729082708541E-3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>7.1372613272251625E-3</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <f>D16*1000</f>
+        <v>4.9296524999922715</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:M17" si="6">E16*1000</f>
+        <v>5.2188724176722951</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>5.1908916294328211</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>5.0523027154731839</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>5.357654322374696</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>5.8018532662928353</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>5.5507617158918308</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>5.9101817586884398</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>5.8710729082708539</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>7.1372613272251622</v>
+      </c>
+      <c r="N17" s="9">
+        <f>SUM(D17:M17)/10</f>
+        <v>5.6020504561314386</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" ref="O17" si="7">SUM(I17:M17)/5</f>
+        <v>6.0542261952738246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2">
+        <f>E15-D15</f>
+        <v>129251</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ref="F18:M18" si="8">F15-E15</f>
+        <v>120149</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="8"/>
+        <v>106772</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="8"/>
+        <v>89565</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="8"/>
+        <v>168276</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="8"/>
+        <v>194747</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="8"/>
+        <v>238556</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="8"/>
+        <v>236004</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="8"/>
+        <v>201011</v>
+      </c>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="11">
+        <f>(E18/D15)</f>
+        <v>9.7464208290222558E-3</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" ref="F19" si="9">(F18/E15)</f>
+        <v>8.9726160796592715E-3</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" ref="G19" si="10">(G18/F15)</f>
+        <v>7.9027259786092312E-3</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" ref="H19" si="11">(H18/G15)</f>
+        <v>6.5771728591766821E-3</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" ref="I19" si="12">(I18/H15)</f>
+        <v>1.2276541283149383E-2</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" ref="J19" si="13">(J18/I15)</f>
+        <v>1.4035421264434005E-2</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" ref="K19" si="14">(K18/J15)</f>
+        <v>1.6954769678569674E-2</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" ref="L19" si="15">(L18/K15)</f>
+        <v>1.6493745027936504E-2</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" ref="M19" si="16">(M18/L15)</f>
+        <v>1.3820222223887586E-2</v>
+      </c>
+      <c r="N19" s="11">
+        <f>SUM(E19:M19)/10</f>
+        <v>1.0677963522444458E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="11">
+        <f>(E14-D14)/D14</f>
+        <v>6.8987670939517243E-2</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20:M20" si="17">(F14-E14)/E14</f>
+        <v>3.563047335584683E-3</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="17"/>
+        <v>-1.9006744328632742E-2</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="17"/>
+        <v>6.7412790697674418E-2</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="17"/>
+        <v>9.6203600315912741E-2</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="17"/>
+        <v>-2.9849819261393986E-2</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="17"/>
+        <v>8.2804097311139566E-2</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="17"/>
+        <v>9.7674033606489526E-3</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="17"/>
+        <v>0.2324663614113569</v>
+      </c>
+      <c r="N20" s="11">
+        <f>SUM(E20:M20)/10</f>
+        <v>5.123484077818078E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2">
+        <v>28590</v>
+      </c>
+      <c r="E24" s="2">
+        <v>33807</v>
+      </c>
+      <c r="F24" s="2">
+        <v>39892</v>
+      </c>
+      <c r="G24" s="2">
+        <v>41737</v>
+      </c>
+      <c r="H24" s="2">
+        <v>38831</v>
+      </c>
+      <c r="I24" s="2">
+        <v>28475</v>
+      </c>
+      <c r="J24" s="2">
+        <v>27620</v>
+      </c>
+      <c r="K24" s="2">
+        <v>28684</v>
+      </c>
+      <c r="L24" s="2">
+        <v>26939</v>
+      </c>
+      <c r="M24" s="2">
+        <v>25378</v>
+      </c>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3789030</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3874548</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3981011</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4083648</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4144491</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4196061</v>
+      </c>
+      <c r="J25" s="2">
+        <v>4241100</v>
+      </c>
+      <c r="K25" s="2">
+        <v>4298275</v>
+      </c>
+      <c r="L25" s="2">
+        <v>4362576</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4420029</v>
+      </c>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <f>D24/D25</f>
+        <v>7.5454667817356951E-3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:M26" si="18">E24/E25</f>
+        <v>8.7254048730329315E-3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="18"/>
+        <v>1.0020570151652431E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="18"/>
+        <v>1.0220518516777155E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="18"/>
+        <v>9.3693049399793601E-3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="18"/>
+        <v>6.7861263218051407E-3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="18"/>
+        <v>6.5124613897337954E-3</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="18"/>
+        <v>6.6733747840703539E-3</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="18"/>
+        <v>6.1750213635246697E-3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="18"/>
+        <v>5.7415912882019552E-3</v>
+      </c>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <f>D26*1000</f>
+        <v>7.5454667817356951</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:M27" si="19">E26*1000</f>
+        <v>8.7254048730329323</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="19"/>
+        <v>10.020570151652432</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="19"/>
+        <v>10.220518516777155</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="19"/>
+        <v>9.3693049399793598</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="19"/>
+        <v>6.7861263218051411</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="19"/>
+        <v>6.5124613897337955</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="19"/>
+        <v>6.6733747840703543</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="19"/>
+        <v>6.17502136352467</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="19"/>
+        <v>5.7415912882019553</v>
+      </c>
+      <c r="N27" s="9">
+        <f>SUM(D27:M27)/10</f>
+        <v>7.7769840410513478</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" ref="O27" si="20">SUM(I27:M27)/5</f>
+        <v>6.3777150294671836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2">
+        <f>E25-D25</f>
+        <v>85518</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ref="F28:M28" si="21">F25-E25</f>
+        <v>106463</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="21"/>
+        <v>102637</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="21"/>
+        <v>60843</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="21"/>
+        <v>51570</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="21"/>
+        <v>45039</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="21"/>
+        <v>57175</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="21"/>
+        <v>64301</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="21"/>
+        <v>57453</v>
+      </c>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="11">
+        <f>(E28/D25)</f>
+        <v>2.2569892558253694E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" ref="F29" si="22">(F28/E25)</f>
+        <v>2.7477527701295738E-2</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" ref="G29" si="23">(G28/F25)</f>
+        <v>2.5781641899507438E-2</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" ref="H29" si="24">(H28/G25)</f>
+        <v>1.4899178381682261E-2</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" ref="I29" si="25">(I28/H25)</f>
+        <v>1.2443023763352363E-2</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" ref="J29" si="26">(J28/I25)</f>
+        <v>1.0733638047683292E-2</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" ref="K29" si="27">(K28/J25)</f>
+        <v>1.3481172337365305E-2</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" ref="L29" si="28">(L28/K25)</f>
+        <v>1.4959722214144046E-2</v>
+      </c>
+      <c r="M29" s="11">
+        <f t="shared" ref="M29" si="29">(M28/L25)</f>
+        <v>1.3169512691584055E-2</v>
+      </c>
+      <c r="N29" s="11">
+        <f>SUM(E29:M29)/10</f>
+        <v>1.5551530959486821E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="11">
+        <f>(E24-D24)/D24</f>
+        <v>0.18247639034627491</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" ref="F30:M30" si="30">(F24-E24)/E24</f>
+        <v>0.1799923092850593</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="30"/>
+        <v>4.6249874661586282E-2</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" si="30"/>
+        <v>-6.9626470517766006E-2</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.26669413612835108</v>
+      </c>
+      <c r="J30" s="11">
+        <f t="shared" si="30"/>
+        <v>-3.0026338893766463E-2</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="30"/>
+        <v>3.8522809558291092E-2</v>
+      </c>
+      <c r="L30" s="11">
+        <f t="shared" si="30"/>
+        <v>-6.0835308883000976E-2</v>
+      </c>
+      <c r="M30" s="11">
+        <f t="shared" si="30"/>
+        <v>-5.7945729240135121E-2</v>
+      </c>
+      <c r="N30" s="11">
+        <f>SUM(E30:M30)/10</f>
+        <v>-3.7886599811808065E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2">
+        <v>25745</v>
+      </c>
+      <c r="E33" s="2">
+        <v>27214</v>
+      </c>
+      <c r="F33" s="2">
+        <v>28046</v>
+      </c>
+      <c r="G33" s="2">
+        <v>28709</v>
+      </c>
+      <c r="H33" s="2">
+        <v>36798</v>
+      </c>
+      <c r="I33" s="2">
+        <v>36697</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44105</v>
+      </c>
+      <c r="K33" s="2">
+        <v>46638</v>
+      </c>
+      <c r="L33" s="2">
+        <v>45839</v>
+      </c>
+      <c r="M33" s="2">
+        <v>39265</v>
+      </c>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4502104</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4566769</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4630077</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4707103</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4776388</v>
+      </c>
+      <c r="I34" s="2">
+        <v>4859250</v>
+      </c>
+      <c r="J34" s="2">
+        <v>4929384</v>
+      </c>
+      <c r="K34" s="2">
+        <v>5010476</v>
+      </c>
+      <c r="L34" s="2">
+        <v>5094796</v>
+      </c>
+      <c r="M34" s="2">
+        <v>5158728</v>
+      </c>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <f>D33/D34</f>
+        <v>5.7184374239244587E-3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:M35" si="31">E33/E34</f>
+        <v>5.959136536137475E-3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="31"/>
+        <v>6.0573506660904341E-3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="31"/>
+        <v>6.0990804747633525E-3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="31"/>
+        <v>7.7041479879775259E-3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="31"/>
+        <v>7.5519884755877965E-3</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="31"/>
+        <v>8.9473654314616187E-3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="31"/>
+        <v>9.3080976737539515E-3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="31"/>
+        <v>8.9972199083142874E-3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="31"/>
+        <v>7.6113724158358414E-3</v>
+      </c>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <f>D35*1000</f>
+        <v>5.7184374239244589</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:M36" si="32">E35*1000</f>
+        <v>5.9591365361374748</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="32"/>
+        <v>6.0573506660904339</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="32"/>
+        <v>6.0990804747633529</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="32"/>
+        <v>7.7041479879775263</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="32"/>
+        <v>7.5519884755877964</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="32"/>
+        <v>8.947365431461618</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="32"/>
+        <v>9.3080976737539523</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="32"/>
+        <v>8.9972199083142872</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="32"/>
+        <v>7.6113724158358416</v>
+      </c>
+      <c r="N36" s="9">
+        <f>SUM(D36:M36)/10</f>
+        <v>7.3954196993846768</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" ref="O36" si="33">SUM(I36:M36)/5</f>
+        <v>8.4832087809906991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="2">
+        <f>E34-D34</f>
+        <v>64665</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" ref="F37:M37" si="34">F34-E34</f>
+        <v>63308</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="34"/>
+        <v>77026</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="34"/>
+        <v>69285</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="34"/>
+        <v>82862</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="34"/>
+        <v>70134</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="34"/>
+        <v>81092</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="34"/>
+        <v>84320</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="34"/>
+        <v>63932</v>
+      </c>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="11">
+        <f>(E37/D34)</f>
+        <v>1.4363284366598372E-2</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" ref="F38" si="35">(F37/E34)</f>
+        <v>1.3862755046292028E-2</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" ref="G38" si="36">(G37/F34)</f>
+        <v>1.6636008429233465E-2</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" ref="H38" si="37">(H37/G34)</f>
+        <v>1.4719244511964153E-2</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" ref="I38" si="38">(I37/H34)</f>
+        <v>1.7348255627474149E-2</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" ref="J38" si="39">(J37/I34)</f>
+        <v>1.4433091526470133E-2</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" ref="K38" si="40">(K37/J34)</f>
+        <v>1.6450737049497462E-2</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" ref="L38" si="41">(L37/K34)</f>
+        <v>1.6828740423065591E-2</v>
+      </c>
+      <c r="M38" s="11">
+        <f t="shared" ref="M38" si="42">(M37/L34)</f>
+        <v>1.2548490655955606E-2</v>
+      </c>
+      <c r="N38" s="11">
+        <f>SUM(E38:M38)/10</f>
+        <v>1.3719060763655097E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="11">
+        <f>(E33-D33)/D33</f>
+        <v>5.7059623227811225E-2</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" ref="F39:M39" si="43">(F33-E33)/E33</f>
+        <v>3.0572499448813111E-2</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="43"/>
+        <v>2.3639734721528916E-2</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="43"/>
+        <v>0.28175833362360236</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="43"/>
+        <v>-2.7447143866514484E-3</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="43"/>
+        <v>0.20186936261819768</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="43"/>
+        <v>5.7431130257340438E-2</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="43"/>
+        <v>-1.7131952485097988E-2</v>
+      </c>
+      <c r="M39" s="11">
+        <f t="shared" si="43"/>
+        <v>-0.14341499596413534</v>
+      </c>
+      <c r="N39" s="11">
+        <f>SUM(E39:M39)/10</f>
+        <v>4.8903902106140894E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45471</v>
+      </c>
+      <c r="E42" s="7">
+        <v>58549</v>
+      </c>
+      <c r="F42" s="7">
+        <v>80742</v>
+      </c>
+      <c r="G42" s="7">
+        <v>83645</v>
+      </c>
+      <c r="H42" s="7">
+        <v>98188</v>
+      </c>
+      <c r="I42" s="7">
+        <v>102350</v>
+      </c>
+      <c r="J42" s="7">
+        <v>114780</v>
+      </c>
+      <c r="K42" s="7">
+        <v>113502</v>
+      </c>
+      <c r="L42" s="2">
+        <v>110197</v>
+      </c>
+      <c r="M42" s="2">
+        <v>106075</v>
+      </c>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="2">
+        <v>37636311</v>
+      </c>
+      <c r="E43" s="2">
+        <v>37944551</v>
+      </c>
+      <c r="F43" s="2">
+        <v>38253768</v>
+      </c>
+      <c r="G43" s="2">
+        <v>38586706</v>
+      </c>
+      <c r="H43" s="2">
+        <v>38904296</v>
+      </c>
+      <c r="I43" s="2">
+        <v>39149186</v>
+      </c>
+      <c r="J43" s="2">
+        <v>39337785</v>
+      </c>
+      <c r="K43" s="2">
+        <v>39437463</v>
+      </c>
+      <c r="L43" s="2">
+        <v>39437610</v>
+      </c>
+      <c r="M43" s="2">
+        <v>39368078</v>
+      </c>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <f>D42/D43</f>
+        <v>1.2081683563513969E-3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:M44" si="44">E42/E43</f>
+        <v>1.5430147005824368E-3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="44"/>
+        <v>2.1106940367286173E-3</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="44"/>
+        <v>2.1677154821144878E-3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="44"/>
+        <v>2.5238343857963653E-3</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="44"/>
+        <v>2.6143583164155697E-3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="44"/>
+        <v>2.9178053619439938E-3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="44"/>
+        <v>2.8780248871485472E-3</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="44"/>
+        <v>2.7942109067968369E-3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="44"/>
+        <v>2.694441928305466E-3</v>
+      </c>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <f>D44*1000</f>
+        <v>1.208168356351397</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:M45" si="45">E44*1000</f>
+        <v>1.5430147005824368</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="45"/>
+        <v>2.1106940367286171</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="45"/>
+        <v>2.1677154821144877</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="45"/>
+        <v>2.5238343857963654</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="45"/>
+        <v>2.6143583164155699</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="45"/>
+        <v>2.9178053619439939</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="45"/>
+        <v>2.878024887148547</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="45"/>
+        <v>2.7942109067968368</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="45"/>
+        <v>2.6944419283054661</v>
+      </c>
+      <c r="N45" s="9">
+        <f>SUM(D45:M45)/10</f>
+        <v>2.3452268362183721</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" ref="O45" si="46">SUM(I45:M45)/5</f>
+        <v>2.7797682801220827</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="2">
+        <f>E43-D43</f>
+        <v>308240</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" ref="F46:M46" si="47">F43-E43</f>
+        <v>309217</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="47"/>
+        <v>332938</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="47"/>
+        <v>317590</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="47"/>
+        <v>244890</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="47"/>
+        <v>188599</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="47"/>
+        <v>99678</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="47"/>
+        <v>147</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="47"/>
+        <v>-69532</v>
+      </c>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="11">
+        <f>(E46/D43)</f>
+        <v>8.1899631449001472E-3</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" ref="F47" si="48">(F46/E43)</f>
+        <v>8.1491806293873398E-3</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" ref="G47" si="49">(G46/F43)</f>
+        <v>8.7034040672803788E-3</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" ref="H47" si="50">(H46/G43)</f>
+        <v>8.2305548444586065E-3</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" ref="I47" si="51">(I46/H43)</f>
+        <v>6.2946775852209223E-3</v>
+      </c>
+      <c r="J47" s="11">
+        <f t="shared" ref="J47" si="52">(J46/I43)</f>
+        <v>4.8174437138999516E-3</v>
+      </c>
+      <c r="K47" s="11">
+        <f t="shared" ref="K47" si="53">(K46/J43)</f>
+        <v>2.5338996590682471E-3</v>
+      </c>
+      <c r="L47" s="11">
+        <f t="shared" ref="L47" si="54">(L46/K43)</f>
+        <v>3.7274202957730824E-6</v>
+      </c>
+      <c r="M47" s="11">
+        <f t="shared" ref="M47" si="55">(M46/L43)</f>
+        <v>-1.7630885847291456E-3</v>
+      </c>
+      <c r="N47" s="11">
+        <f>SUM(E47:M47)/10</f>
+        <v>4.5159762479782218E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="11">
+        <f>(E42-D42)/D42</f>
+        <v>0.28761188449781178</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" ref="F48:M48" si="56">(F42-E42)/E42</f>
+        <v>0.37905002647355207</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="56"/>
+        <v>3.5954026405092765E-2</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="56"/>
+        <v>0.17386574212445455</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="56"/>
+        <v>4.238807186214201E-2</v>
+      </c>
+      <c r="J48" s="11">
+        <f t="shared" si="56"/>
+        <v>0.12144601856375183</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="56"/>
+        <v>-1.1134343962362781E-2</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="56"/>
+        <v>-2.9118429631195927E-2</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" si="56"/>
+        <v>-3.7405736998284887E-2</v>
+      </c>
+      <c r="N48" s="11">
+        <f>SUM(E48:M48)/10</f>
+        <v>9.6265725933496152E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="2">
+        <v>97450</v>
+      </c>
+      <c r="E52" s="7">
+        <v>135514</v>
+      </c>
+      <c r="F52" s="7">
+        <v>147460</v>
+      </c>
+      <c r="G52" s="7">
+        <v>166982</v>
+      </c>
+      <c r="H52" s="7">
+        <v>175443</v>
+      </c>
+      <c r="I52" s="7">
+        <v>165853</v>
+      </c>
+      <c r="J52" s="7">
+        <v>175112</v>
+      </c>
+      <c r="K52" s="7">
+        <v>192878</v>
+      </c>
+      <c r="L52" s="2">
+        <v>209895</v>
+      </c>
+      <c r="M52" s="2">
+        <v>230503</v>
+      </c>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2">
+        <v>25645504</v>
+      </c>
+      <c r="E53" s="2">
+        <v>26084120</v>
+      </c>
+      <c r="F53" s="2">
+        <v>26479646</v>
+      </c>
+      <c r="G53" s="2">
+        <v>26963092</v>
+      </c>
+      <c r="H53" s="2">
+        <v>27468531</v>
+      </c>
+      <c r="I53" s="2">
+        <v>27914064</v>
+      </c>
+      <c r="J53" s="2">
+        <v>28291024</v>
+      </c>
+      <c r="K53" s="2">
+        <v>28624564</v>
+      </c>
+      <c r="L53" s="2">
+        <v>28986794</v>
+      </c>
+      <c r="M53" s="2">
+        <v>29360759</v>
+      </c>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <f>D52/D53</f>
+        <v>3.7998863270536621E-3</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54" si="57">E52/E53</f>
+        <v>5.1952682321657773E-3</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54" si="58">F52/F53</f>
+        <v>5.5688055648478079E-3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54" si="59">G52/G53</f>
+        <v>6.1929840984112656E-3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ref="H54" si="60">H52/H53</f>
+        <v>6.3870543350134012E-3</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54" si="61">I52/I53</f>
+        <v>5.9415569155390627E-3</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54" si="62">J52/J53</f>
+        <v>6.1896663761622766E-3</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54" si="63">K52/K53</f>
+        <v>6.7381987023453008E-3</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ref="L54" si="64">L52/L53</f>
+        <v>7.24105604779887E-3</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54" si="65">M52/M53</f>
+        <v>7.8507166657374224E-3</v>
+      </c>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <f>D54*1000</f>
+        <v>3.7998863270536622</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55" si="66">E54*1000</f>
+        <v>5.1952682321657777</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="67">F54*1000</f>
+        <v>5.5688055648478079</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="68">G54*1000</f>
+        <v>6.1929840984112658</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="69">H54*1000</f>
+        <v>6.387054335013401</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55" si="70">I54*1000</f>
+        <v>5.9415569155390626</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ref="J55" si="71">J54*1000</f>
+        <v>6.1896663761622763</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ref="K55" si="72">K54*1000</f>
+        <v>6.7381987023453007</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ref="L55" si="73">L54*1000</f>
+        <v>7.2410560477988701</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ref="M55" si="74">M54*1000</f>
+        <v>7.8507166657374228</v>
+      </c>
+      <c r="N55" s="9">
+        <f t="shared" ref="N55" si="75">SUM(D55:M55)/10</f>
+        <v>6.1105193265074842</v>
+      </c>
+      <c r="O55" s="9">
+        <f t="shared" ref="O55" si="76">SUM(I55:M55)/5</f>
+        <v>6.7922389415165867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="2">
+        <f>E53-D53</f>
+        <v>438616</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" ref="F56:M56" si="77">F53-E53</f>
+        <v>395526</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="77"/>
+        <v>483446</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="77"/>
+        <v>505439</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="77"/>
+        <v>445533</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="77"/>
+        <v>376960</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="77"/>
+        <v>333540</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="77"/>
+        <v>362230</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="77"/>
+        <v>373965</v>
+      </c>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="11">
+        <f>(E56/D53)</f>
+        <v>1.7103036851995577E-2</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" ref="F57" si="78">(F56/E53)</f>
+        <v>1.5163478775592199E-2</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" ref="G57" si="79">(G56/F53)</f>
+        <v>1.825726824293648E-2</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" ref="H57" si="80">(H56/G53)</f>
+        <v>1.8745587486776367E-2</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" ref="I57" si="81">(I56/H53)</f>
+        <v>1.6219760714542761E-2</v>
+      </c>
+      <c r="J57" s="11">
+        <f t="shared" ref="J57" si="82">(J56/I53)</f>
+        <v>1.3504303780345277E-2</v>
+      </c>
+      <c r="K57" s="11">
+        <f t="shared" ref="K57" si="83">(K56/J53)</f>
+        <v>1.1789605070498685E-2</v>
+      </c>
+      <c r="L57" s="11">
+        <f t="shared" ref="L57" si="84">(L56/K53)</f>
+        <v>1.2654515890617583E-2</v>
+      </c>
+      <c r="M57" s="11">
+        <f t="shared" ref="M57" si="85">(M56/L53)</f>
+        <v>1.2901219776150477E-2</v>
+      </c>
+      <c r="N57" s="11">
+        <f>SUM(E57:M57)/10</f>
+        <v>1.363387765894554E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="11">
+        <f>(E52-D52)/D52</f>
+        <v>0.39060030785017957</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" ref="F58:M58" si="86">(F52-E52)/E52</f>
+        <v>8.81532535383798E-2</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="86"/>
+        <v>0.13238844432388444</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="86"/>
+        <v>5.067013211004779E-2</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="86"/>
+        <v>-5.4661627993137375E-2</v>
+      </c>
+      <c r="J58" s="11">
+        <f t="shared" si="86"/>
+        <v>5.5826545193635328E-2</v>
+      </c>
+      <c r="K58" s="11">
+        <f t="shared" si="86"/>
+        <v>0.10145506875599616</v>
+      </c>
+      <c r="L58" s="11">
+        <f t="shared" si="86"/>
+        <v>8.8226754736154461E-2</v>
+      </c>
+      <c r="M58" s="11">
+        <f t="shared" si="86"/>
+        <v>9.8182424545606134E-2</v>
+      </c>
+      <c r="N58" s="11">
+        <f>SUM(E58:M58)/10</f>
+        <v>9.5084130306074627E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="2">
+        <v>42360</v>
+      </c>
+      <c r="E62" s="7">
+        <v>64810</v>
+      </c>
+      <c r="F62" s="7">
+        <v>86752</v>
+      </c>
+      <c r="G62" s="7">
+        <v>84075</v>
+      </c>
+      <c r="H62" s="7">
+        <v>109924</v>
+      </c>
+      <c r="I62" s="7">
+        <v>116240</v>
+      </c>
+      <c r="J62" s="7">
+        <v>122719</v>
+      </c>
+      <c r="K62" s="7">
+        <v>144427</v>
+      </c>
+      <c r="L62" s="2">
+        <v>154302</v>
+      </c>
+      <c r="M62" s="2">
+        <v>164074</v>
+      </c>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="2">
+        <v>19055607</v>
+      </c>
+      <c r="E63" s="2">
+        <v>19302016</v>
+      </c>
+      <c r="F63" s="2">
+        <v>19551678</v>
+      </c>
+      <c r="G63" s="2">
+        <v>19853880</v>
+      </c>
+      <c r="H63" s="2">
+        <v>20219111</v>
+      </c>
+      <c r="I63" s="2">
+        <v>20627237</v>
+      </c>
+      <c r="J63" s="2">
+        <v>20977089</v>
+      </c>
+      <c r="K63" s="2">
+        <v>21254926</v>
+      </c>
+      <c r="L63" s="2">
+        <v>21492056</v>
+      </c>
+      <c r="M63" s="2">
+        <v>21733312</v>
+      </c>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64">
+        <f>D62/D63</f>
+        <v>2.2229677595680892E-3</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64" si="87">E62/E63</f>
+        <v>3.3576803583625671E-3</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64" si="88">F62/F63</f>
+        <v>4.4370616169108349E-3</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64" si="89">G62/G63</f>
+        <v>4.2346886351685414E-3</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ref="H64" si="90">H62/H63</f>
+        <v>5.4366386336174724E-3</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ref="I64" si="91">I62/I63</f>
+        <v>5.635267583341385E-3</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ref="J64" si="92">J62/J63</f>
+        <v>5.8501444123157413E-3</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ref="K64" si="93">K62/K63</f>
+        <v>6.7949895473642203E-3</v>
+      </c>
+      <c r="L64">
+        <f t="shared" ref="L64" si="94">L62/L63</f>
+        <v>7.1794899473554318E-3</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ref="M64" si="95">M62/M63</f>
+        <v>7.5494245883922341E-3</v>
+      </c>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <f>D64*1000</f>
+        <v>2.222967759568089</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65" si="96">E64*1000</f>
+        <v>3.357680358362567</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65" si="97">F64*1000</f>
+        <v>4.4370616169108352</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65" si="98">G64*1000</f>
+        <v>4.2346886351685411</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65" si="99">H64*1000</f>
+        <v>5.4366386336174726</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ref="I65" si="100">I64*1000</f>
+        <v>5.6352675833413848</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65" si="101">J64*1000</f>
+        <v>5.8501444123157409</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65" si="102">K64*1000</f>
+        <v>6.7949895473642199</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65" si="103">L64*1000</f>
+        <v>7.1794899473554317</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65" si="104">M64*1000</f>
+        <v>7.5494245883922337</v>
+      </c>
+      <c r="N65" s="9">
+        <f>SUM(D65:M65)/10</f>
+        <v>5.2698353082396512</v>
+      </c>
+      <c r="O65" s="9">
+        <f t="shared" ref="O65" si="105">SUM(I65:M65)/5</f>
+        <v>6.6018632157538022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="2">
+        <f>E63-D63</f>
+        <v>246409</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" ref="F66:M66" si="106">F63-E63</f>
+        <v>249662</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="106"/>
+        <v>302202</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="106"/>
+        <v>365231</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="106"/>
+        <v>408126</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="106"/>
+        <v>349852</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="106"/>
+        <v>277837</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="106"/>
+        <v>237130</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" si="106"/>
+        <v>241256</v>
+      </c>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="11">
+        <f>(E66/D63)</f>
+        <v>1.2931049638040919E-2</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" ref="F67" si="107">(F66/E63)</f>
+        <v>1.2934503836283215E-2</v>
+      </c>
+      <c r="G67" s="11">
+        <f t="shared" ref="G67" si="108">(G66/F63)</f>
+        <v>1.5456576156788179E-2</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" ref="H67" si="109">(H66/G63)</f>
+        <v>1.8395950816666565E-2</v>
+      </c>
+      <c r="I67" s="11">
+        <f t="shared" ref="I67" si="110">(I66/H63)</f>
+        <v>2.0185160465264768E-2</v>
+      </c>
+      <c r="J67" s="11">
+        <f t="shared" ref="J67" si="111">(J66/I63)</f>
+        <v>1.6960681646310653E-2</v>
+      </c>
+      <c r="K67" s="11">
+        <f t="shared" ref="K67" si="112">(K66/J63)</f>
+        <v>1.3244783392014021E-2</v>
+      </c>
+      <c r="L67" s="11">
+        <f t="shared" ref="L67" si="113">(L66/K63)</f>
+        <v>1.1156472621923031E-2</v>
+      </c>
+      <c r="M67" s="11">
+        <f t="shared" ref="M67" si="114">(M66/L63)</f>
+        <v>1.1225356941187944E-2</v>
+      </c>
+      <c r="N67" s="11">
+        <f>SUM(E67:M67)/10</f>
+        <v>1.3249053551447929E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="11">
+        <f>(E62-D62)/D62</f>
+        <v>0.52998111425873462</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" ref="F68:M68" si="115">(F62-E62)/E62</f>
+        <v>0.33855886437278199</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="115"/>
+        <v>-3.0858078199926225E-2</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="115"/>
+        <v>0.30745168004757656</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" si="115"/>
+        <v>5.7457879989811139E-2</v>
+      </c>
+      <c r="J68" s="11">
+        <f t="shared" si="115"/>
+        <v>5.5738128011011703E-2</v>
+      </c>
+      <c r="K68" s="11">
+        <f t="shared" si="115"/>
+        <v>0.1768919238259764</v>
+      </c>
+      <c r="L68" s="11">
+        <f t="shared" si="115"/>
+        <v>6.8373642047539582E-2</v>
+      </c>
+      <c r="M68" s="11">
+        <f t="shared" si="115"/>
+        <v>6.3330352166530574E-2</v>
+      </c>
+      <c r="N68" s="11">
+        <f>SUM(E68:M68)/10</f>
+        <v>0.1566925506520036</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="2">
+        <v>22575</v>
+      </c>
+      <c r="E72" s="7">
+        <v>24872</v>
+      </c>
+      <c r="F72" s="7">
+        <v>32581</v>
+      </c>
+      <c r="G72" s="7">
+        <v>36286</v>
+      </c>
+      <c r="H72" s="7">
+        <v>74611</v>
+      </c>
+      <c r="I72" s="7">
+        <v>33711</v>
+      </c>
+      <c r="J72" s="7">
+        <v>39350</v>
+      </c>
+      <c r="K72" s="7">
+        <v>37778</v>
+      </c>
+      <c r="L72" s="2">
+        <v>45219</v>
+      </c>
+      <c r="M72" s="2">
+        <v>37330</v>
+      </c>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="2">
+        <v>19499921</v>
+      </c>
+      <c r="E73" s="2">
+        <v>19574362</v>
+      </c>
+      <c r="F73" s="2">
+        <v>19626488</v>
+      </c>
+      <c r="G73" s="2">
+        <v>19653431</v>
+      </c>
+      <c r="H73" s="2">
+        <v>19657321</v>
+      </c>
+      <c r="I73" s="2">
+        <v>19636391</v>
+      </c>
+      <c r="J73" s="2">
+        <v>19593849</v>
+      </c>
+      <c r="K73" s="2">
+        <v>19544098</v>
+      </c>
+      <c r="L73" s="2">
+        <v>19463131</v>
+      </c>
+      <c r="M73" s="2">
+        <v>19336776</v>
+      </c>
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74">
+        <f>D72/D73</f>
+        <v>1.157696997849376E-3</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74" si="116">E72/E73</f>
+        <v>1.2706416689340883E-3</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ref="F74" si="117">F72/F73</f>
+        <v>1.6600524760211812E-3</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ref="G74" si="118">G72/G73</f>
+        <v>1.8462934029177909E-3</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ref="H74" si="119">H72/H73</f>
+        <v>3.7955833350841652E-3</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ref="I74" si="120">I72/I73</f>
+        <v>1.7167614965499516E-3</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ref="J74" si="121">J72/J73</f>
+        <v>2.0082833138093492E-3</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ref="K74" si="122">K72/K73</f>
+        <v>1.9329620635344746E-3</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ref="L74" si="123">L72/L73</f>
+        <v>2.3233158118290422E-3</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M74" si="124">M72/M73</f>
+        <v>1.9305183035682888E-3</v>
+      </c>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75">
+        <f>D74*1000</f>
+        <v>1.1576969978493761</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75" si="125">E74*1000</f>
+        <v>1.2706416689340883</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75" si="126">F74*1000</f>
+        <v>1.6600524760211812</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ref="G75" si="127">G74*1000</f>
+        <v>1.8462934029177909</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ref="H75" si="128">H74*1000</f>
+        <v>3.795583335084165</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75" si="129">I74*1000</f>
+        <v>1.7167614965499516</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75" si="130">J74*1000</f>
+        <v>2.0082833138093492</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75" si="131">K74*1000</f>
+        <v>1.9329620635344746</v>
+      </c>
+      <c r="L75">
+        <f t="shared" ref="L75" si="132">L74*1000</f>
+        <v>2.3233158118290422</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ref="M75" si="133">M74*1000</f>
+        <v>1.9305183035682887</v>
+      </c>
+      <c r="N75" s="9">
+        <f>SUM(D75:M75)/10</f>
+        <v>1.9642108870097705</v>
+      </c>
+      <c r="O75" s="9">
+        <f t="shared" ref="O75" si="134">SUM(I75:M75)/5</f>
+        <v>1.982368197858221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="2">
+        <f>E73-D73</f>
+        <v>74441</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" ref="F76:M76" si="135">F73-E73</f>
+        <v>52126</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="135"/>
+        <v>26943</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="135"/>
+        <v>3890</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="135"/>
+        <v>-20930</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="135"/>
+        <v>-42542</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="135"/>
+        <v>-49751</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="135"/>
+        <v>-80967</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" si="135"/>
+        <v>-126355</v>
+      </c>
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="11">
+        <f>(E76/D73)</f>
+        <v>3.817502645267127E-3</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" ref="F77" si="136">(F76/E73)</f>
+        <v>2.6629731278087123E-3</v>
+      </c>
+      <c r="G77" s="11">
+        <f t="shared" ref="G77" si="137">(G76/F73)</f>
+        <v>1.3727876327135043E-3</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" ref="H77" si="138">(H76/G73)</f>
+        <v>1.9792981693628965E-4</v>
+      </c>
+      <c r="I77" s="11">
+        <f t="shared" ref="I77" si="139">(I76/H73)</f>
+        <v>-1.0647432577409709E-3</v>
+      </c>
+      <c r="J77" s="11">
+        <f t="shared" ref="J77" si="140">(J76/I73)</f>
+        <v>-2.1664877216999805E-3</v>
+      </c>
+      <c r="K77" s="11">
+        <f t="shared" ref="K77" si="141">(K76/J73)</f>
+        <v>-2.5391131676068342E-3</v>
+      </c>
+      <c r="L77" s="11">
+        <f t="shared" ref="L77" si="142">(L76/K73)</f>
+        <v>-4.1427852029804601E-3</v>
+      </c>
+      <c r="M77" s="11">
+        <f t="shared" ref="M77" si="143">(M76/L73)</f>
+        <v>-6.4920181650115804E-3</v>
+      </c>
+      <c r="N77" s="11">
+        <f>SUM(E77:M77)/10</f>
+        <v>-8.3539542923141957E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="11">
+        <f>(E72-D72)/D72</f>
+        <v>0.10174972314507198</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" ref="F78:M78" si="144">(F72-E72)/E72</f>
+        <v>0.30994692827275649</v>
+      </c>
+      <c r="G78" s="11">
+        <f t="shared" si="144"/>
+        <v>0.11371658328473651</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="144"/>
+        <v>1.0561924709254258</v>
+      </c>
+      <c r="I78" s="11">
+        <f t="shared" si="144"/>
+        <v>-0.54817654233290003</v>
+      </c>
+      <c r="J78" s="11">
+        <f t="shared" si="144"/>
+        <v>0.16727477677909289</v>
+      </c>
+      <c r="K78" s="11">
+        <f t="shared" si="144"/>
+        <v>-3.9949174078780181E-2</v>
+      </c>
+      <c r="L78" s="11">
+        <f t="shared" si="144"/>
+        <v>0.19696648843242098</v>
+      </c>
+      <c r="M78" s="11">
+        <f t="shared" si="144"/>
+        <v>-0.17446206240739512</v>
+      </c>
+      <c r="N78" s="11">
+        <f>SUM(E78:M78)/10</f>
+        <v>0.11832591920204291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="7">
+        <v>20864</v>
+      </c>
+      <c r="E83" s="7">
+        <v>28118</v>
+      </c>
+      <c r="F83" s="7">
+        <v>32962</v>
+      </c>
+      <c r="G83" s="7">
+        <v>33898</v>
+      </c>
+      <c r="H83" s="7">
+        <v>40374</v>
+      </c>
+      <c r="I83" s="7">
+        <v>44077</v>
+      </c>
+      <c r="J83" s="7">
+        <v>45794</v>
+      </c>
+      <c r="K83" s="7">
+        <v>47746</v>
+      </c>
+      <c r="L83" s="2">
+        <v>48424</v>
+      </c>
+      <c r="M83" s="2">
+        <v>43881</v>
+      </c>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="2">
+        <v>6827479</v>
+      </c>
+      <c r="E84" s="2">
+        <v>6898599</v>
+      </c>
+      <c r="F84" s="2">
+        <v>6966252</v>
+      </c>
+      <c r="G84" s="2">
+        <v>7057531</v>
+      </c>
+      <c r="H84" s="2">
+        <v>7167287</v>
+      </c>
+      <c r="I84" s="2">
+        <v>7299961</v>
+      </c>
+      <c r="J84" s="2">
+        <v>7427951</v>
+      </c>
+      <c r="K84" s="2">
+        <v>7526793</v>
+      </c>
+      <c r="L84" s="2">
+        <v>7614024</v>
+      </c>
+      <c r="M84" s="2">
+        <v>7693612</v>
+      </c>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85">
+        <f>D83/D84</f>
+        <v>3.0558863674278601E-3</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85" si="145">E83/E84</f>
+        <v>4.0759000486910455E-3</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ref="F85" si="146">F83/F84</f>
+        <v>4.7316691960038199E-3</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ref="G85" si="147">G83/G84</f>
+        <v>4.8030961535981921E-3</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ref="H85" si="148">H83/H84</f>
+        <v>5.633093805229231E-3</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ref="I85" si="149">I83/I84</f>
+        <v>6.0379774631672692E-3</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ref="J85" si="150">J83/J84</f>
+        <v>6.1650918268039197E-3</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ref="K85" si="151">K83/K84</f>
+        <v>6.3434719142668062E-3</v>
+      </c>
+      <c r="L85">
+        <f t="shared" ref="L85" si="152">L83/L84</f>
+        <v>6.3598433627212103E-3</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ref="M85" si="153">M83/M84</f>
+        <v>5.7035629038740187E-3</v>
+      </c>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86">
+        <f>D85*1000</f>
+        <v>3.0558863674278602</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ref="E86" si="154">E85*1000</f>
+        <v>4.0759000486910457</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86" si="155">F85*1000</f>
+        <v>4.7316691960038195</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86" si="156">G85*1000</f>
+        <v>4.803096153598192</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86" si="157">H85*1000</f>
+        <v>5.6330938052292314</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ref="I86" si="158">I85*1000</f>
+        <v>6.0379774631672696</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ref="J86" si="159">J85*1000</f>
+        <v>6.1650918268039199</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86" si="160">K85*1000</f>
+        <v>6.3434719142668063</v>
+      </c>
+      <c r="L86">
+        <f t="shared" ref="L86" si="161">L85*1000</f>
+        <v>6.3598433627212101</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ref="M86" si="162">M85*1000</f>
+        <v>5.703562903874019</v>
+      </c>
+      <c r="N86" s="9">
+        <f>SUM(D86:M86)/10</f>
+        <v>5.2909593041783367</v>
+      </c>
+      <c r="O86" s="9">
+        <f t="shared" ref="O86" si="163">SUM(I86:M86)/5</f>
+        <v>6.1219894941666455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="2">
+        <f>E84-D84</f>
+        <v>71120</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" ref="F87:M87" si="164">F84-E84</f>
+        <v>67653</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="164"/>
+        <v>91279</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="164"/>
+        <v>109756</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="164"/>
+        <v>132674</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="164"/>
+        <v>127990</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="164"/>
+        <v>98842</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="164"/>
+        <v>87231</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" si="164"/>
+        <v>79588</v>
+      </c>
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="11">
+        <f>(E87/D84)</f>
+        <v>1.0416729220258313E-2</v>
+      </c>
+      <c r="F88" s="11">
+        <f t="shared" ref="F88" si="165">(F87/E84)</f>
+        <v>9.806773810160584E-3</v>
+      </c>
+      <c r="G88" s="11">
+        <f t="shared" ref="G88" si="166">(G87/F84)</f>
+        <v>1.3103028716158991E-2</v>
+      </c>
+      <c r="H88" s="11">
+        <f t="shared" ref="H88" si="167">(H87/G84)</f>
+        <v>1.5551614296841204E-2</v>
+      </c>
+      <c r="I88" s="11">
+        <f t="shared" ref="I88" si="168">(I87/H84)</f>
+        <v>1.8511048880838734E-2</v>
+      </c>
+      <c r="J88" s="11">
+        <f t="shared" ref="J88" si="169">(J87/I84)</f>
+        <v>1.7532970381622586E-2</v>
+      </c>
+      <c r="K88" s="11">
+        <f t="shared" ref="K88" si="170">(K87/J84)</f>
+        <v>1.3306765216948792E-2</v>
+      </c>
+      <c r="L88" s="11">
+        <f t="shared" ref="L88" si="171">(L87/K84)</f>
+        <v>1.1589398034461689E-2</v>
+      </c>
+      <c r="M88" s="11">
+        <f t="shared" ref="M88" si="172">(M87/L84)</f>
+        <v>1.0452817064931763E-2</v>
+      </c>
+      <c r="N88" s="11">
+        <f>SUM(E88:M88)/10</f>
+        <v>1.2027114562222264E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="11">
+        <f>(E83-D83)/D83</f>
+        <v>0.34768021472392641</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" ref="F89:M89" si="173">(F83-E83)/E83</f>
+        <v>0.17227398819261683</v>
+      </c>
+      <c r="G89" s="11">
+        <f t="shared" si="173"/>
+        <v>2.8396335173836541E-2</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="173"/>
+        <v>0.19104371939347453</v>
+      </c>
+      <c r="I89" s="11">
+        <f t="shared" si="173"/>
+        <v>9.1717441918066078E-2</v>
+      </c>
+      <c r="J89" s="11">
+        <f t="shared" si="173"/>
+        <v>3.8954556798330195E-2</v>
+      </c>
+      <c r="K89" s="11">
+        <f t="shared" si="173"/>
+        <v>4.2625671485347426E-2</v>
+      </c>
+      <c r="L89" s="11">
+        <f t="shared" si="173"/>
+        <v>1.420014242030746E-2</v>
+      </c>
+      <c r="M89" s="11">
+        <f t="shared" si="173"/>
+        <v>-9.3817115479927313E-2</v>
+      </c>
+      <c r="N89" s="11">
+        <f>SUM(E89:M89)/10</f>
+        <v>8.3307495462597816E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6">
         <v>2011</v>
       </c>
-      <c r="E3">
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="F3">
+      <c r="E6">
         <v>2013</v>
       </c>
-      <c r="G3">
+      <c r="F6">
         <v>2014</v>
       </c>
-      <c r="H3">
+      <c r="G6">
         <v>2015</v>
       </c>
-      <c r="I3">
+      <c r="H6">
         <v>2016</v>
       </c>
-      <c r="J3">
+      <c r="I6">
         <v>2017</v>
       </c>
-      <c r="K3">
+      <c r="J6">
         <v>2018</v>
       </c>
-      <c r="L3">
+      <c r="K6">
         <v>2019</v>
       </c>
-      <c r="M3">
+      <c r="L6">
         <v>2020</v>
       </c>
-      <c r="N3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2">
-        <v>53890</v>
-      </c>
-      <c r="E5" s="2">
-        <v>51262</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42493</v>
-      </c>
-      <c r="G5" s="2">
-        <v>41300</v>
-      </c>
-      <c r="H5" s="2">
-        <v>38485</v>
-      </c>
-      <c r="I5" s="2">
-        <v>43502</v>
-      </c>
-      <c r="J5" s="2">
-        <v>48885</v>
-      </c>
-      <c r="K5" s="2">
-        <v>56422</v>
-      </c>
-      <c r="L5" s="2">
-        <v>53468</v>
-      </c>
-      <c r="M5" s="2">
-        <v>59346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8005090</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8061101</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8110880</v>
-      </c>
-      <c r="G6" s="2">
-        <v>8150183</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8175272</v>
-      </c>
-      <c r="I6" s="2">
-        <v>8225950</v>
-      </c>
-      <c r="J6" s="2">
-        <v>8302063</v>
-      </c>
-      <c r="K6" s="2">
-        <v>8401738</v>
-      </c>
-      <c r="L6" s="2">
-        <v>8503483</v>
-      </c>
-      <c r="M6" s="2">
-        <v>8578300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7">
-        <f>D5/D6</f>
-        <v>6.7319667861323231E-3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:M7" si="0">E5/E6</f>
-        <v>6.3591809605164354E-3</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>5.2390122896652401E-3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>5.0673708798931261E-3</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>4.7074886315709129E-3</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>5.2883861438496466E-3</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>5.8882954754739874E-3</v>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>45471</v>
+      </c>
+      <c r="D7" s="4">
+        <v>58549</v>
+      </c>
+      <c r="E7" s="4">
+        <v>80742</v>
+      </c>
+      <c r="F7" s="4">
+        <v>83645</v>
+      </c>
+      <c r="G7" s="4">
+        <v>98188</v>
+      </c>
+      <c r="H7" s="4">
+        <v>102350</v>
+      </c>
+      <c r="I7" s="4">
+        <v>114780</v>
+      </c>
+      <c r="J7" s="4">
+        <v>113502</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>6.7155152898126557E-3</v>
+        <v>110197</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>6.2877764323160286E-3</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>6.918153946586153E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8">
-        <f>D7*1000</f>
-        <v>6.7319667861323227</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:M8" si="1">E7*1000</f>
-        <v>6.3591809605164356</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>5.23901228966524</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>5.0673708798931258</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>4.7074886315709126</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>5.2883861438496469</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>5.8882954754739876</v>
+        <v>106075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>97450</v>
+      </c>
+      <c r="D8" s="4">
+        <v>135514</v>
+      </c>
+      <c r="E8" s="4">
+        <v>147460</v>
+      </c>
+      <c r="F8" s="4">
+        <v>166982</v>
+      </c>
+      <c r="G8" s="4">
+        <v>175443</v>
+      </c>
+      <c r="H8" s="4">
+        <v>165853</v>
+      </c>
+      <c r="I8" s="4">
+        <v>175112</v>
+      </c>
+      <c r="J8" s="4">
+        <v>192878</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>6.7155152898126556</v>
+        <v>209895</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
-        <v>6.2877764323160283</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>6.9181539465861528</v>
-      </c>
-      <c r="N8" s="9">
-        <f>SUM(D8:M8)/10</f>
-        <v>5.9203146835816511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>230503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>42360</v>
+      </c>
+      <c r="D9" s="4">
+        <v>64810</v>
+      </c>
+      <c r="E9" s="4">
+        <v>86752</v>
+      </c>
+      <c r="F9" s="4">
+        <v>84075</v>
+      </c>
+      <c r="G9" s="4">
+        <v>109924</v>
+      </c>
+      <c r="H9" s="4">
+        <v>116240</v>
+      </c>
+      <c r="I9" s="4">
+        <v>122719</v>
+      </c>
+      <c r="J9" s="4">
+        <v>144427</v>
+      </c>
+      <c r="K9">
+        <v>154302</v>
+      </c>
+      <c r="L9">
+        <v>164074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2">
-        <v>65374</v>
-      </c>
-      <c r="E11" s="2">
-        <v>69884</v>
-      </c>
-      <c r="F11" s="2">
-        <v>70133</v>
-      </c>
-      <c r="G11" s="2">
-        <v>68800</v>
-      </c>
-      <c r="H11" s="2">
-        <v>73438</v>
-      </c>
-      <c r="I11" s="2">
-        <v>80503</v>
-      </c>
-      <c r="J11" s="2">
-        <v>78100</v>
-      </c>
-      <c r="K11" s="2">
-        <v>84567</v>
-      </c>
-      <c r="L11" s="2">
-        <v>85393</v>
-      </c>
-      <c r="M11" s="2">
-        <v>105244</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="2">
-        <v>13261381</v>
-      </c>
-      <c r="E12" s="2">
-        <v>13390632</v>
-      </c>
-      <c r="F12" s="2">
-        <v>13510781</v>
-      </c>
-      <c r="G12" s="2">
-        <v>13617553</v>
-      </c>
-      <c r="H12" s="2">
-        <v>13707118</v>
-      </c>
-      <c r="I12" s="2">
-        <v>13875394</v>
-      </c>
-      <c r="J12" s="2">
-        <v>14070141</v>
-      </c>
-      <c r="K12" s="2">
-        <v>14308697</v>
-      </c>
-      <c r="L12" s="2">
-        <v>14544701</v>
-      </c>
-      <c r="M12" s="2">
-        <v>14745712</v>
-      </c>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13">
-        <f>D11/D12</f>
-        <v>4.9296524999922712E-3</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13:M13" si="2">E11/E12</f>
-        <v>5.2188724176722955E-3</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>5.1908916294328214E-3</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>5.052302715473184E-3</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>5.3576543223746963E-3</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>5.801853266292835E-3</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>5.5507617158918306E-3</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>5.9101817586884398E-3</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>5.8710729082708541E-3</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>7.1372613272251625E-3</v>
-      </c>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14">
-        <f>D13*1000</f>
-        <v>4.9296524999922715</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14:M14" si="3">E13*1000</f>
-        <v>5.2188724176722951</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>5.1908916294328211</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>5.0523027154731839</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>5.357654322374696</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>5.8018532662928353</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>5.5507617158918308</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>5.9101817586884398</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
-        <v>5.8710729082708539</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>7.1372613272251622</v>
-      </c>
-      <c r="N14" s="9">
-        <f>SUM(D14:M14)/10</f>
-        <v>5.6020504561314386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2">
-        <v>28590</v>
-      </c>
-      <c r="E17" s="2">
-        <v>33807</v>
-      </c>
-      <c r="F17" s="2">
-        <v>39892</v>
-      </c>
-      <c r="G17" s="2">
-        <v>41737</v>
-      </c>
-      <c r="H17" s="2">
-        <v>38831</v>
-      </c>
-      <c r="I17" s="2">
-        <v>28475</v>
-      </c>
-      <c r="J17" s="2">
-        <v>27620</v>
-      </c>
-      <c r="K17" s="2">
-        <v>28684</v>
-      </c>
-      <c r="L17" s="2">
-        <v>26939</v>
-      </c>
-      <c r="M17" s="2">
-        <v>25378</v>
-      </c>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3789030</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3874548</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3981011</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4083648</v>
-      </c>
-      <c r="H18" s="2">
-        <v>4144491</v>
-      </c>
-      <c r="I18" s="2">
-        <v>4196061</v>
-      </c>
-      <c r="J18" s="2">
-        <v>4241100</v>
-      </c>
-      <c r="K18" s="2">
-        <v>4298275</v>
-      </c>
-      <c r="L18" s="2">
-        <v>4362576</v>
-      </c>
-      <c r="M18" s="2">
-        <v>4420029</v>
-      </c>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19">
-        <f>D17/D18</f>
-        <v>7.5454667817356951E-3</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ref="E19:M19" si="4">E17/E18</f>
-        <v>8.7254048730329315E-3</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>1.0020570151652431E-2</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>1.0220518516777155E-2</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>9.3693049399793601E-3</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
-        <v>6.7861263218051407E-3</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>6.5124613897337954E-3</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>6.6733747840703539E-3</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="4"/>
-        <v>6.1750213635246697E-3</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="4"/>
-        <v>5.7415912882019552E-3</v>
-      </c>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20">
-        <f>D19*1000</f>
-        <v>7.5454667817356951</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20:M20" si="5">E19*1000</f>
-        <v>8.7254048730329323</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="5"/>
-        <v>10.020570151652432</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="5"/>
-        <v>10.220518516777155</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
-        <v>9.3693049399793598</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
-        <v>6.7861263218051411</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="5"/>
-        <v>6.5124613897337955</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
-        <v>6.6733747840703543</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
-        <v>6.17502136352467</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="5"/>
-        <v>5.7415912882019553</v>
-      </c>
-      <c r="N20" s="9">
-        <f>SUM(D20:M20)/10</f>
-        <v>7.7769840410513478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2">
-        <v>25745</v>
-      </c>
-      <c r="E23" s="2">
-        <v>27214</v>
-      </c>
-      <c r="F23" s="2">
-        <v>28046</v>
-      </c>
-      <c r="G23" s="2">
-        <v>28709</v>
-      </c>
-      <c r="H23" s="2">
-        <v>36798</v>
-      </c>
-      <c r="I23" s="2">
-        <v>36697</v>
-      </c>
-      <c r="J23" s="2">
-        <v>44105</v>
-      </c>
-      <c r="K23" s="2">
-        <v>46638</v>
-      </c>
-      <c r="L23" s="2">
-        <v>45839</v>
-      </c>
-      <c r="M23" s="2">
-        <v>39265</v>
-      </c>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4502104</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4566769</v>
-      </c>
-      <c r="F24" s="2">
-        <v>4630077</v>
-      </c>
-      <c r="G24" s="2">
-        <v>4707103</v>
-      </c>
-      <c r="H24" s="2">
-        <v>4776388</v>
-      </c>
-      <c r="I24" s="2">
-        <v>4859250</v>
-      </c>
-      <c r="J24" s="2">
-        <v>4929384</v>
-      </c>
-      <c r="K24" s="2">
-        <v>5010476</v>
-      </c>
-      <c r="L24" s="2">
-        <v>5094796</v>
-      </c>
-      <c r="M24" s="2">
-        <v>5158728</v>
-      </c>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25">
-        <f>D23/D24</f>
-        <v>5.7184374239244587E-3</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25:M25" si="6">E23/E24</f>
-        <v>5.959136536137475E-3</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="6"/>
-        <v>6.0573506660904341E-3</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="6"/>
-        <v>6.0990804747633525E-3</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="6"/>
-        <v>7.7041479879775259E-3</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="6"/>
-        <v>7.5519884755877965E-3</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="6"/>
-        <v>8.9473654314616187E-3</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="6"/>
-        <v>9.3080976737539515E-3</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="6"/>
-        <v>8.9972199083142874E-3</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="6"/>
-        <v>7.6113724158358414E-3</v>
-      </c>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26">
-        <f>D25*1000</f>
-        <v>5.7184374239244589</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26:M26" si="7">E25*1000</f>
-        <v>5.9591365361374748</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="7"/>
-        <v>6.0573506660904339</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="7"/>
-        <v>6.0990804747633529</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="7"/>
-        <v>7.7041479879775263</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="7"/>
-        <v>7.5519884755877964</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="7"/>
-        <v>8.947365431461618</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="7"/>
-        <v>9.3080976737539523</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="7"/>
-        <v>8.9972199083142872</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="7"/>
-        <v>7.6113724158358416</v>
-      </c>
-      <c r="N26" s="9">
-        <f>SUM(D26:M26)/10</f>
-        <v>7.3954196993846768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="2">
-        <v>45471</v>
-      </c>
-      <c r="E30" s="7">
-        <v>58549</v>
-      </c>
-      <c r="F30" s="7">
-        <v>80742</v>
-      </c>
-      <c r="G30" s="7">
-        <v>83645</v>
-      </c>
-      <c r="H30" s="7">
-        <v>98188</v>
-      </c>
-      <c r="I30" s="7">
-        <v>102350</v>
-      </c>
-      <c r="J30" s="7">
-        <v>114780</v>
-      </c>
-      <c r="K30" s="7">
-        <v>113502</v>
-      </c>
-      <c r="L30" s="2">
-        <v>110197</v>
-      </c>
-      <c r="M30" s="2">
-        <v>106075</v>
-      </c>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="2">
-        <v>37636311</v>
-      </c>
-      <c r="E31" s="2">
-        <v>37944551</v>
-      </c>
-      <c r="F31" s="2">
-        <v>38253768</v>
-      </c>
-      <c r="G31" s="2">
-        <v>38586706</v>
-      </c>
-      <c r="H31" s="2">
-        <v>38904296</v>
-      </c>
-      <c r="I31" s="2">
-        <v>39149186</v>
-      </c>
-      <c r="J31" s="2">
-        <v>39337785</v>
-      </c>
-      <c r="K31" s="2">
-        <v>39437463</v>
-      </c>
-      <c r="L31" s="2">
-        <v>39437610</v>
-      </c>
-      <c r="M31" s="2">
-        <v>39368078</v>
-      </c>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32">
-        <f>D30/D31</f>
-        <v>1.2081683563513969E-3</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ref="E32:M32" si="8">E30/E31</f>
-        <v>1.5430147005824368E-3</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="8"/>
-        <v>2.1106940367286173E-3</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="8"/>
-        <v>2.1677154821144878E-3</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="8"/>
-        <v>2.5238343857963653E-3</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="8"/>
-        <v>2.6143583164155697E-3</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="8"/>
-        <v>2.9178053619439938E-3</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="8"/>
-        <v>2.8780248871485472E-3</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="8"/>
-        <v>2.7942109067968369E-3</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="8"/>
-        <v>2.694441928305466E-3</v>
-      </c>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33">
-        <f>D32*1000</f>
-        <v>1.208168356351397</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ref="E33:M33" si="9">E32*1000</f>
-        <v>1.5430147005824368</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="9"/>
-        <v>2.1106940367286171</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="9"/>
-        <v>2.1677154821144877</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="9"/>
-        <v>2.5238343857963654</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="9"/>
-        <v>2.6143583164155699</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="9"/>
-        <v>2.9178053619439939</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="9"/>
-        <v>2.878024887148547</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="9"/>
-        <v>2.7942109067968368</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="9"/>
-        <v>2.6944419283054661</v>
-      </c>
-      <c r="N33" s="9">
-        <f>SUM(D33:M33)/10</f>
-        <v>2.3452268362183721</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="2">
-        <v>97450</v>
-      </c>
-      <c r="E36" s="7">
-        <v>135514</v>
-      </c>
-      <c r="F36" s="7">
-        <v>147460</v>
-      </c>
-      <c r="G36" s="7">
-        <v>166982</v>
-      </c>
-      <c r="H36" s="7">
-        <v>175443</v>
-      </c>
-      <c r="I36" s="7">
-        <v>165853</v>
-      </c>
-      <c r="J36" s="7">
-        <v>175112</v>
-      </c>
-      <c r="K36" s="7">
-        <v>192878</v>
-      </c>
-      <c r="L36" s="2">
-        <v>209895</v>
-      </c>
-      <c r="M36" s="2">
-        <v>230503</v>
-      </c>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="2">
-        <v>25645504</v>
-      </c>
-      <c r="E37" s="2">
-        <v>26084120</v>
-      </c>
-      <c r="F37" s="2">
-        <v>26479646</v>
-      </c>
-      <c r="G37" s="2">
-        <v>26963092</v>
-      </c>
-      <c r="H37" s="2">
-        <v>27468531</v>
-      </c>
-      <c r="I37" s="2">
-        <v>27914064</v>
-      </c>
-      <c r="J37" s="2">
-        <v>28291024</v>
-      </c>
-      <c r="K37" s="2">
-        <v>28624564</v>
-      </c>
-      <c r="L37" s="2">
-        <v>28986794</v>
-      </c>
-      <c r="M37" s="2">
-        <v>29360759</v>
-      </c>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38">
-        <f>D36/D37</f>
-        <v>3.7998863270536621E-3</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ref="E38" si="10">E36/E37</f>
-        <v>5.1952682321657773E-3</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38" si="11">F36/F37</f>
-        <v>5.5688055648478079E-3</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ref="G38" si="12">G36/G37</f>
-        <v>6.1929840984112656E-3</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ref="H38" si="13">H36/H37</f>
-        <v>6.3870543350134012E-3</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ref="I38" si="14">I36/I37</f>
-        <v>5.9415569155390627E-3</v>
-      </c>
-      <c r="J38">
-        <f t="shared" ref="J38" si="15">J36/J37</f>
-        <v>6.1896663761622766E-3</v>
-      </c>
-      <c r="K38">
-        <f t="shared" ref="K38" si="16">K36/K37</f>
-        <v>6.7381987023453008E-3</v>
-      </c>
-      <c r="L38">
-        <f t="shared" ref="L38" si="17">L36/L37</f>
-        <v>7.24105604779887E-3</v>
-      </c>
-      <c r="M38">
-        <f t="shared" ref="M38" si="18">M36/M37</f>
-        <v>7.8507166657374224E-3</v>
-      </c>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39">
-        <f>D38*1000</f>
-        <v>3.7998863270536622</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ref="E39" si="19">E38*1000</f>
-        <v>5.1952682321657777</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ref="F39" si="20">F38*1000</f>
-        <v>5.5688055648478079</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="G39" si="21">G38*1000</f>
-        <v>6.1929840984112658</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ref="H39" si="22">H38*1000</f>
-        <v>6.387054335013401</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ref="I39" si="23">I38*1000</f>
-        <v>5.9415569155390626</v>
-      </c>
-      <c r="J39">
-        <f t="shared" ref="J39" si="24">J38*1000</f>
-        <v>6.1896663761622763</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ref="K39" si="25">K38*1000</f>
-        <v>6.7381987023453007</v>
-      </c>
-      <c r="L39">
-        <f t="shared" ref="L39" si="26">L38*1000</f>
-        <v>7.2410560477988701</v>
-      </c>
-      <c r="M39">
-        <f t="shared" ref="M39" si="27">M38*1000</f>
-        <v>7.8507166657374228</v>
-      </c>
-      <c r="N39" s="9">
-        <f t="shared" ref="N39" si="28">SUM(D39:M39)/10</f>
-        <v>6.1105193265074842</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="2">
-        <v>42360</v>
-      </c>
-      <c r="E42" s="7">
-        <v>64810</v>
-      </c>
-      <c r="F42" s="7">
-        <v>86752</v>
-      </c>
-      <c r="G42" s="7">
-        <v>84075</v>
-      </c>
-      <c r="H42" s="7">
-        <v>109924</v>
-      </c>
-      <c r="I42" s="7">
-        <v>116240</v>
-      </c>
-      <c r="J42" s="7">
-        <v>122719</v>
-      </c>
-      <c r="K42" s="7">
-        <v>144427</v>
-      </c>
-      <c r="L42" s="2">
-        <v>154302</v>
-      </c>
-      <c r="M42" s="2">
-        <v>164074</v>
-      </c>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="2">
-        <v>19055607</v>
-      </c>
-      <c r="E43" s="2">
-        <v>19302016</v>
-      </c>
-      <c r="F43" s="2">
-        <v>19551678</v>
-      </c>
-      <c r="G43" s="2">
-        <v>19853880</v>
-      </c>
-      <c r="H43" s="2">
-        <v>20219111</v>
-      </c>
-      <c r="I43" s="2">
-        <v>20627237</v>
-      </c>
-      <c r="J43" s="2">
-        <v>20977089</v>
-      </c>
-      <c r="K43" s="2">
-        <v>21254926</v>
-      </c>
-      <c r="L43" s="2">
-        <v>21492056</v>
-      </c>
-      <c r="M43" s="2">
-        <v>21733312</v>
-      </c>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44">
-        <f>D42/D43</f>
-        <v>2.2229677595680892E-3</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ref="E44" si="29">E42/E43</f>
-        <v>3.3576803583625671E-3</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ref="F44" si="30">F42/F43</f>
-        <v>4.4370616169108349E-3</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ref="G44" si="31">G42/G43</f>
-        <v>4.2346886351685414E-3</v>
-      </c>
-      <c r="H44">
-        <f t="shared" ref="H44" si="32">H42/H43</f>
-        <v>5.4366386336174724E-3</v>
-      </c>
-      <c r="I44">
-        <f t="shared" ref="I44" si="33">I42/I43</f>
-        <v>5.635267583341385E-3</v>
-      </c>
-      <c r="J44">
-        <f t="shared" ref="J44" si="34">J42/J43</f>
-        <v>5.8501444123157413E-3</v>
-      </c>
-      <c r="K44">
-        <f t="shared" ref="K44" si="35">K42/K43</f>
-        <v>6.7949895473642203E-3</v>
-      </c>
-      <c r="L44">
-        <f t="shared" ref="L44" si="36">L42/L43</f>
-        <v>7.1794899473554318E-3</v>
-      </c>
-      <c r="M44">
-        <f t="shared" ref="M44" si="37">M42/M43</f>
-        <v>7.5494245883922341E-3</v>
-      </c>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45">
-        <f>D44*1000</f>
-        <v>2.222967759568089</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ref="E45" si="38">E44*1000</f>
-        <v>3.357680358362567</v>
-      </c>
-      <c r="F45">
-        <f t="shared" ref="F45" si="39">F44*1000</f>
-        <v>4.4370616169108352</v>
-      </c>
-      <c r="G45">
-        <f t="shared" ref="G45" si="40">G44*1000</f>
-        <v>4.2346886351685411</v>
-      </c>
-      <c r="H45">
-        <f t="shared" ref="H45" si="41">H44*1000</f>
-        <v>5.4366386336174726</v>
-      </c>
-      <c r="I45">
-        <f t="shared" ref="I45" si="42">I44*1000</f>
-        <v>5.6352675833413848</v>
-      </c>
-      <c r="J45">
-        <f t="shared" ref="J45" si="43">J44*1000</f>
-        <v>5.8501444123157409</v>
-      </c>
-      <c r="K45">
-        <f t="shared" ref="K45" si="44">K44*1000</f>
-        <v>6.7949895473642199</v>
-      </c>
-      <c r="L45">
-        <f t="shared" ref="L45" si="45">L44*1000</f>
-        <v>7.1794899473554317</v>
-      </c>
-      <c r="M45">
-        <f t="shared" ref="M45" si="46">M44*1000</f>
-        <v>7.5494245883922337</v>
-      </c>
-      <c r="N45" s="9">
-        <f>SUM(D45:M45)/10</f>
-        <v>5.2698353082396512</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="C10">
         <v>22575</v>
       </c>
-      <c r="E48" s="7">
+      <c r="D10" s="4">
         <v>24872</v>
       </c>
-      <c r="F48" s="7">
+      <c r="E10" s="4">
         <v>32581</v>
       </c>
-      <c r="G48" s="7">
+      <c r="F10" s="4">
         <v>36286</v>
       </c>
-      <c r="H48" s="7">
+      <c r="G10" s="4">
         <v>74611</v>
       </c>
-      <c r="I48" s="7">
+      <c r="H10" s="4">
         <v>33711</v>
       </c>
-      <c r="J48" s="7">
+      <c r="I10" s="4">
         <v>39350</v>
       </c>
-      <c r="K48" s="7">
+      <c r="J10" s="4">
         <v>37778</v>
       </c>
-      <c r="L48" s="2">
+      <c r="K10">
         <v>45219</v>
       </c>
-      <c r="M48" s="2">
+      <c r="L10">
         <v>37330</v>
       </c>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="2">
-        <v>19499921</v>
-      </c>
-      <c r="E49" s="2">
-        <v>19574362</v>
-      </c>
-      <c r="F49" s="2">
-        <v>19626488</v>
-      </c>
-      <c r="G49" s="2">
-        <v>19653431</v>
-      </c>
-      <c r="H49" s="2">
-        <v>19657321</v>
-      </c>
-      <c r="I49" s="2">
-        <v>19636391</v>
-      </c>
-      <c r="J49" s="2">
-        <v>19593849</v>
-      </c>
-      <c r="K49" s="2">
-        <v>19544098</v>
-      </c>
-      <c r="L49" s="2">
-        <v>19463131</v>
-      </c>
-      <c r="M49" s="2">
-        <v>19336776</v>
-      </c>
-      <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50">
-        <f>D48/D49</f>
-        <v>1.157696997849376E-3</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ref="E50" si="47">E48/E49</f>
-        <v>1.2706416689340883E-3</v>
-      </c>
-      <c r="F50">
-        <f t="shared" ref="F50" si="48">F48/F49</f>
-        <v>1.6600524760211812E-3</v>
-      </c>
-      <c r="G50">
-        <f t="shared" ref="G50" si="49">G48/G49</f>
-        <v>1.8462934029177909E-3</v>
-      </c>
-      <c r="H50">
-        <f t="shared" ref="H50" si="50">H48/H49</f>
-        <v>3.7955833350841652E-3</v>
-      </c>
-      <c r="I50">
-        <f t="shared" ref="I50" si="51">I48/I49</f>
-        <v>1.7167614965499516E-3</v>
-      </c>
-      <c r="J50">
-        <f t="shared" ref="J50" si="52">J48/J49</f>
-        <v>2.0082833138093492E-3</v>
-      </c>
-      <c r="K50">
-        <f t="shared" ref="K50" si="53">K48/K49</f>
-        <v>1.9329620635344746E-3</v>
-      </c>
-      <c r="L50">
-        <f t="shared" ref="L50" si="54">L48/L49</f>
-        <v>2.3233158118290422E-3</v>
-      </c>
-      <c r="M50">
-        <f t="shared" ref="M50" si="55">M48/M49</f>
-        <v>1.9305183035682888E-3</v>
-      </c>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51">
-        <f>D50*1000</f>
-        <v>1.1576969978493761</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ref="E51" si="56">E50*1000</f>
-        <v>1.2706416689340883</v>
-      </c>
-      <c r="F51">
-        <f t="shared" ref="F51" si="57">F50*1000</f>
-        <v>1.6600524760211812</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ref="G51" si="58">G50*1000</f>
-        <v>1.8462934029177909</v>
-      </c>
-      <c r="H51">
-        <f t="shared" ref="H51" si="59">H50*1000</f>
-        <v>3.795583335084165</v>
-      </c>
-      <c r="I51">
-        <f t="shared" ref="I51" si="60">I50*1000</f>
-        <v>1.7167614965499516</v>
-      </c>
-      <c r="J51">
-        <f t="shared" ref="J51" si="61">J50*1000</f>
-        <v>2.0082833138093492</v>
-      </c>
-      <c r="K51">
-        <f t="shared" ref="K51" si="62">K50*1000</f>
-        <v>1.9329620635344746</v>
-      </c>
-      <c r="L51">
-        <f t="shared" ref="L51" si="63">L50*1000</f>
-        <v>2.3233158118290422</v>
-      </c>
-      <c r="M51">
-        <f t="shared" ref="M51" si="64">M50*1000</f>
-        <v>1.9305183035682887</v>
-      </c>
-      <c r="N51" s="9">
-        <f>SUM(D51:M51)/10</f>
-        <v>1.9642108870097705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="7">
+      <c r="C11" s="4">
         <v>20864</v>
       </c>
-      <c r="E54" s="7">
+      <c r="D11" s="4">
         <v>28118</v>
       </c>
-      <c r="F54" s="7">
+      <c r="E11" s="4">
         <v>32962</v>
       </c>
-      <c r="G54" s="7">
+      <c r="F11" s="4">
         <v>33898</v>
       </c>
-      <c r="H54" s="7">
+      <c r="G11" s="4">
         <v>40374</v>
       </c>
-      <c r="I54" s="7">
+      <c r="H11" s="4">
         <v>44077</v>
       </c>
-      <c r="J54" s="7">
+      <c r="I11" s="4">
         <v>45794</v>
       </c>
-      <c r="K54" s="7">
+      <c r="J11" s="4">
         <v>47746</v>
       </c>
-      <c r="L54" s="2">
+      <c r="K11">
         <v>48424</v>
       </c>
-      <c r="M54" s="2">
+      <c r="L11">
         <v>43881</v>
       </c>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="2">
-        <v>6827479</v>
-      </c>
-      <c r="E55" s="2">
-        <v>6898599</v>
-      </c>
-      <c r="F55" s="2">
-        <v>6966252</v>
-      </c>
-      <c r="G55" s="2">
-        <v>7057531</v>
-      </c>
-      <c r="H55" s="2">
-        <v>7167287</v>
-      </c>
-      <c r="I55" s="2">
-        <v>7299961</v>
-      </c>
-      <c r="J55" s="2">
-        <v>7427951</v>
-      </c>
-      <c r="K55" s="2">
-        <v>7526793</v>
-      </c>
-      <c r="L55" s="2">
-        <v>7614024</v>
-      </c>
-      <c r="M55" s="2">
-        <v>7693612</v>
-      </c>
-      <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56">
-        <f>D54/D55</f>
-        <v>3.0558863674278601E-3</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ref="E56" si="65">E54/E55</f>
-        <v>4.0759000486910455E-3</v>
-      </c>
-      <c r="F56">
-        <f t="shared" ref="F56" si="66">F54/F55</f>
-        <v>4.7316691960038199E-3</v>
-      </c>
-      <c r="G56">
-        <f t="shared" ref="G56" si="67">G54/G55</f>
-        <v>4.8030961535981921E-3</v>
-      </c>
-      <c r="H56">
-        <f t="shared" ref="H56" si="68">H54/H55</f>
-        <v>5.633093805229231E-3</v>
-      </c>
-      <c r="I56">
-        <f t="shared" ref="I56" si="69">I54/I55</f>
-        <v>6.0379774631672692E-3</v>
-      </c>
-      <c r="J56">
-        <f t="shared" ref="J56" si="70">J54/J55</f>
-        <v>6.1650918268039197E-3</v>
-      </c>
-      <c r="K56">
-        <f t="shared" ref="K56" si="71">K54/K55</f>
-        <v>6.3434719142668062E-3</v>
-      </c>
-      <c r="L56">
-        <f t="shared" ref="L56" si="72">L54/L55</f>
-        <v>6.3598433627212103E-3</v>
-      </c>
-      <c r="M56">
-        <f t="shared" ref="M56" si="73">M54/M55</f>
-        <v>5.7035629038740187E-3</v>
-      </c>
-      <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57">
-        <f>D56*1000</f>
-        <v>3.0558863674278602</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ref="E57" si="74">E56*1000</f>
-        <v>4.0759000486910457</v>
-      </c>
-      <c r="F57">
-        <f t="shared" ref="F57" si="75">F56*1000</f>
-        <v>4.7316691960038195</v>
-      </c>
-      <c r="G57">
-        <f t="shared" ref="G57" si="76">G56*1000</f>
-        <v>4.803096153598192</v>
-      </c>
-      <c r="H57">
-        <f t="shared" ref="H57" si="77">H56*1000</f>
-        <v>5.6330938052292314</v>
-      </c>
-      <c r="I57">
-        <f t="shared" ref="I57" si="78">I56*1000</f>
-        <v>6.0379774631672696</v>
-      </c>
-      <c r="J57">
-        <f t="shared" ref="J57" si="79">J56*1000</f>
-        <v>6.1650918268039199</v>
-      </c>
-      <c r="K57">
-        <f t="shared" ref="K57" si="80">K56*1000</f>
-        <v>6.3434719142668063</v>
-      </c>
-      <c r="L57">
-        <f t="shared" ref="L57" si="81">L56*1000</f>
-        <v>6.3598433627212101</v>
-      </c>
-      <c r="M57">
-        <f t="shared" ref="M57" si="82">M56*1000</f>
-        <v>5.703562903874019</v>
-      </c>
-      <c r="N57" s="9">
-        <f>SUM(D57:M57)/10</f>
-        <v>5.2909593041783367</v>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4319,8 +7281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4415,6 +7377,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8383C-0ACF-FE4A-9DD2-84520D3CA675}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>2.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR57"/>
   <sheetViews>
@@ -13706,7 +16764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DR45"/>
   <sheetViews>
@@ -18618,11 +21676,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:EB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -24040,12 +27098,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:L23"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24657,7 +27715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
@@ -24958,7 +28016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -25406,244 +28464,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <v>2011</v>
-      </c>
-      <c r="D6">
-        <v>2012</v>
-      </c>
-      <c r="E6">
-        <v>2013</v>
-      </c>
-      <c r="F6">
-        <v>2014</v>
-      </c>
-      <c r="G6">
-        <v>2015</v>
-      </c>
-      <c r="H6">
-        <v>2016</v>
-      </c>
-      <c r="I6">
-        <v>2017</v>
-      </c>
-      <c r="J6">
-        <v>2018</v>
-      </c>
-      <c r="K6">
-        <v>2019</v>
-      </c>
-      <c r="L6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>45471</v>
-      </c>
-      <c r="D7" s="4">
-        <v>58549</v>
-      </c>
-      <c r="E7" s="4">
-        <v>80742</v>
-      </c>
-      <c r="F7" s="4">
-        <v>83645</v>
-      </c>
-      <c r="G7" s="4">
-        <v>98188</v>
-      </c>
-      <c r="H7" s="4">
-        <v>102350</v>
-      </c>
-      <c r="I7" s="4">
-        <v>114780</v>
-      </c>
-      <c r="J7" s="4">
-        <v>113502</v>
-      </c>
-      <c r="K7">
-        <v>110197</v>
-      </c>
-      <c r="L7">
-        <v>106075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8">
-        <v>97450</v>
-      </c>
-      <c r="D8" s="4">
-        <v>135514</v>
-      </c>
-      <c r="E8" s="4">
-        <v>147460</v>
-      </c>
-      <c r="F8" s="4">
-        <v>166982</v>
-      </c>
-      <c r="G8" s="4">
-        <v>175443</v>
-      </c>
-      <c r="H8" s="4">
-        <v>165853</v>
-      </c>
-      <c r="I8" s="4">
-        <v>175112</v>
-      </c>
-      <c r="J8" s="4">
-        <v>192878</v>
-      </c>
-      <c r="K8">
-        <v>209895</v>
-      </c>
-      <c r="L8">
-        <v>230503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
-        <v>42360</v>
-      </c>
-      <c r="D9" s="4">
-        <v>64810</v>
-      </c>
-      <c r="E9" s="4">
-        <v>86752</v>
-      </c>
-      <c r="F9" s="4">
-        <v>84075</v>
-      </c>
-      <c r="G9" s="4">
-        <v>109924</v>
-      </c>
-      <c r="H9" s="4">
-        <v>116240</v>
-      </c>
-      <c r="I9" s="4">
-        <v>122719</v>
-      </c>
-      <c r="J9" s="4">
-        <v>144427</v>
-      </c>
-      <c r="K9">
-        <v>154302</v>
-      </c>
-      <c r="L9">
-        <v>164074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10">
-        <v>22575</v>
-      </c>
-      <c r="D10" s="4">
-        <v>24872</v>
-      </c>
-      <c r="E10" s="4">
-        <v>32581</v>
-      </c>
-      <c r="F10" s="4">
-        <v>36286</v>
-      </c>
-      <c r="G10" s="4">
-        <v>74611</v>
-      </c>
-      <c r="H10" s="4">
-        <v>33711</v>
-      </c>
-      <c r="I10" s="4">
-        <v>39350</v>
-      </c>
-      <c r="J10" s="4">
-        <v>37778</v>
-      </c>
-      <c r="K10">
-        <v>45219</v>
-      </c>
-      <c r="L10">
-        <v>37330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="4">
-        <v>20864</v>
-      </c>
-      <c r="D11" s="4">
-        <v>28118</v>
-      </c>
-      <c r="E11" s="4">
-        <v>32962</v>
-      </c>
-      <c r="F11" s="4">
-        <v>33898</v>
-      </c>
-      <c r="G11" s="4">
-        <v>40374</v>
-      </c>
-      <c r="H11" s="4">
-        <v>44077</v>
-      </c>
-      <c r="I11" s="4">
-        <v>45794</v>
-      </c>
-      <c r="J11" s="4">
-        <v>47746</v>
-      </c>
-      <c r="K11">
-        <v>48424</v>
-      </c>
-      <c r="L11">
-        <v>43881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>